--- a/src/main/resources/SH688126.xlsx
+++ b/src/main/resources/SH688126.xlsx
@@ -74,40 +74,30 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20200424</t>
+          <t>20200714</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1071.0</v>
+        <v>6900.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20200714</t>
+          <t>20200724</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6900.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200724</t>
+          <t>20200805</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3700.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>20200805</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
         <v>5960.0</v>
       </c>
     </row>

--- a/src/main/resources/SH688126.xlsx
+++ b/src/main/resources/SH688126.xlsx
@@ -101,6 +101,86 @@
         <v>5960.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>20200909</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3668.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>20200917</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4180.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>20201102</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2986.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>20201109</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3875.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20201117</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3205.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>20201207</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3729.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>20201228</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3060.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>20210114</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3810.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/SH688126.xlsx
+++ b/src/main/resources/SH688126.xlsx
@@ -174,11 +174,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>20210114</t>
+          <t>20210119</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3810.0</v>
+        <v>3819.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>20210208</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2738.0</v>
       </c>
     </row>
   </sheetData>
